--- a/output.xlsx
+++ b/output.xlsx
@@ -414,26 +414,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>bnb-black.svg</v>
+        <v>nft1.jpg</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>https://cloudflare-ipfs.com/ipfs/QmUNLLsPACCz1vLxQVkXqqLX5R1X345qqfHbsf67hvA3Nn</v>
+        <v>https://cloudflare-ipfs.com/ipfs/QmV4WJFR7ckRJrJqpvR4bZzNjZNTbV5DWhfXbtyTqRkX7e</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>bnb-black.svg</v>
+        <v>nft2.jpg</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>https://cloudflare-ipfs.com/ipfs/QmUNLLsPACCz1vLxQVkXqqLX5R1X345qqfHbsf67hvA3Nn</v>
+        <v>https://cloudflare-ipfs.com/ipfs/QmSpe6oTxU58utX2aoLXZg1e2Q3LsR6Hygv5b6CTPRCMqR</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>bnb-black.svg</v>
+        <v>nft3.jpg</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>https://cloudflare-ipfs.com/ipfs/QmUNLLsPACCz1vLxQVkXqqLX5R1X345qqfHbsf67hvA3Nn</v>
+        <v>https://cloudflare-ipfs.com/ipfs/QmVoRVn2NbX8gQg6LbjKtDc9NVbcjTa6WoTQxqcyQuw9DB</v>
       </c>
     </row>
   </sheetData>
